--- a/WebAPI/files/template/template1.xlsx
+++ b/WebAPI/files/template/template1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>000_004_31</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>009_003_01</t>
+  </si>
+  <si>
+    <t>001_011_30</t>
+  </si>
+  <si>
+    <t>001_010_01</t>
+  </si>
+  <si>
+    <t>001_012_01</t>
+  </si>
+  <si>
+    <t>013_018_01</t>
   </si>
 </sst>
 </file>
@@ -50,8 +62,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -73,14 +85,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,73 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -179,7 +191,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,7 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,187 +229,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,20 +449,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,17 +495,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,19 +540,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,10 +561,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,100 +573,100 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,13 +1022,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
@@ -1067,6 +1082,29 @@
     <row r="18" spans="10:10">
       <c r="J18" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11">
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="11:11">
+      <c r="K25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/WebAPI/files/template/template1.xlsx
+++ b/WebAPI/files/template/template1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>000_004_31</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>013_018_01</t>
+  </si>
+  <si>
+    <t>200_003_30</t>
   </si>
 </sst>
 </file>
@@ -62,10 +65,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -76,16 +79,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,67 +94,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,6 +130,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -181,6 +185,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -205,16 +216,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,11 +426,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,15 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -471,17 +471,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +500,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -528,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,10 +1025,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1105,6 +1108,11 @@
     <row r="27" spans="3:3">
       <c r="C27" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
